--- a/评审PPT/SE2019春-G11-软件需求规格说明(SRS)/SE2019春-G11-第六周任务以及绩效评价.xlsx
+++ b/评审PPT/SE2019春-G11-软件需求规格说明(SRS)/SE2019春-G11-第六周任务以及绩效评价.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="20180323" sheetId="4" r:id="rId1"/>
+    <sheet name="第六周任务清单" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>绩效评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,26 @@
   </si>
   <si>
     <t>需求分析PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMBOK7-13章读书笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人月神话《没有银弹》读书笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMBOK1-6章读书笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUP方法阅读笔记分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读《杀死一个程序员》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,10 +200,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,12 +536,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -556,8 +576,8 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.7</v>
+      <c r="F3" s="6">
+        <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -573,80 +593,206 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="5"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="5"/>
-    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
         <v>0.76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="5"/>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F3:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
